--- a/7-Gráficos/33. Gráfico de Curva ABC - Material(1).xlsx
+++ b/7-Gráficos/33. Gráfico de Curva ABC - Material(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damor\Dropbox\Hashtag (1)\Hashtag\Online\Conteúdos\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84287D46-9A69-4BB2-8FEB-E6493A1296FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F280F-B2CF-48E0-963B-93B8CABEEFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F413CF67-74E3-4838-97F2-291472031C57}"/>
   </bookViews>
@@ -16,6 +16,13 @@
     <sheet name="Curva ABC" sheetId="1" r:id="rId1"/>
     <sheet name="Do zero" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Do zero'!$A$1:$E$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Do zero'!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Do zero'!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Do zero'!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Do zero'!$D$2:$D$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +31,16 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -189,7 +204,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -285,7 +301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85B01D8C-E2D5-46C2-979D-5428CBE9E95C}" type="CELLRANGE">
+                    <a:fld id="{2441B085-585D-485C-9F4D-D63368356B65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -303,7 +319,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -318,8 +333,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7376D26-EB2C-448E-9244-33A5EDD02453}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{13DFE108-9261-475C-9372-F2F65EEC9FB3}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -351,8 +366,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44211391-A331-4ADE-AFEA-1BFA3515150D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{030C2DAB-F7F0-4352-A2F8-59381372FF03}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -384,8 +399,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE3ED4F9-788A-4DF8-9212-0A8E7631EBCE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E22A7777-8DE4-4573-964E-818AD5FA0292}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -417,8 +432,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78B54132-2C94-48ED-8A5A-BB461F815785}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5C3E8B47-2031-4559-97C2-E251652F1FE2}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -450,8 +465,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83E8860C-E36D-49C3-93BC-1848205D7DF1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1EC54C89-0D6E-4268-9035-FA25BF36EE92}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -483,8 +498,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C16ACA01-6C60-4773-A848-095B5DF37EAD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9E6BA687-99CC-40D1-A21E-AAFEE49EEC44}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -516,8 +531,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D77931E-9F5A-46D1-848B-5D68428D0EDA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6FA8727C-935B-4B23-B4B9-D5AFEFC781F0}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -549,8 +564,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{604EBC51-B783-4F74-B2C9-AA980AD0FD39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9627D120-5D89-416E-A19F-4972C20D127B}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1037,6 +1052,773 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.737383881286947E-2"/>
+          <c:y val="0.11627168435442035"/>
+          <c:w val="0.86025426059678067"/>
+          <c:h val="0.67165379877102205"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Do zero'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A4291020-AAF0-434E-8C92-A41DF751B563}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{67E1375D-3B32-4746-B215-39392574227D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DD2C9BBF-8CF1-48EA-AFBB-26582081B27C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B47A0B72-BCF8-45F8-829C-58B4AC8C562C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{16DAB53C-54D8-455D-B628-E490173AC807}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7D0A4B54-5756-47B3-A03B-A8C19A15F3F6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FB9B3A71-F030-462F-A97C-B83A484DCB28}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E80B4FB8-ED70-481B-B16F-10F1B86AFE3B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F6FE60AF-8887-427F-884B-8B804F363F71}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3E99-494B-99D9-263EB24D73B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Do zero'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Pepsi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprite</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Água</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gatorade</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Limonada</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Suco de Laranja</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Guaraná</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fanta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coca-cola</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Do zero'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.25255026829412114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2054956070523026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19582522554395895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15254437172003066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7574739076596502E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0922224187746922E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.785600566071113E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8952178784126422E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8279379680405685E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Do zero'!$E$2:$E$10</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>C</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E99-494B-99D9-263EB24D73B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="381039231"/>
+        <c:axId val="381041631"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Do zero'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Acumulado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Do zero'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.25255026829412114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45804587534642371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65387110089038269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80641547261041335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87399021168700985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91491243587475679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95276844153546791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98172062031959428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E99-494B-99D9-263EB24D73B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="381039231"/>
+        <c:axId val="381041631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="381039231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381041631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381041631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381039231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1077,7 +1859,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1621,10 +2946,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314737</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>795129</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D284B6-5654-DA8E-C19C-2F48E537CDAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1662,7 +3028,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1768,7 +3134,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1910,7 +3276,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2176,15 +3542,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4456EDF3-29E8-4B9B-BAF0-F0740BF402CF}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2201,112 +3567,206 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>2141500</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="6">
+        <f>B2/$B$11</f>
+        <v>0.25255026829412114</v>
+      </c>
+      <c r="D2" s="6">
+        <f>C2</f>
+        <v>0.25255026829412114</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f>IF(D2 &lt; $B$14, $A$14, IF(D2 &lt; $B$15, $A$15, $A$16))</f>
+        <v>A</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>1742500</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C10" si="0">B3/$B$11</f>
+        <v>0.2054956070523026</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3 +D2</f>
+        <v>0.45804587534642371</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f t="shared" ref="E3:E10" si="1">IF(D3 &lt; $B$14, $A$14, IF(D3 &lt; $B$15, $A$15, $A$16))</f>
+        <v>A</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>1660500</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19582522554395895</v>
+      </c>
+      <c r="D4" s="6">
+        <f>C4 +D3</f>
+        <v>0.65387110089038269</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>1293500</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15254437172003066</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D10" si="2">C5 +D4</f>
+        <v>0.80641547261041335</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>573000</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>6.7574739076596502E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.87399021168700985</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>347000</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>4.0922224187746922E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.91491243587475679</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>321000</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>3.785600566071113E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.95276844153546791</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>245500</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8952178784126422E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98172062031959428</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>155000</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8279379680405685E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <f>SUM(B2:B10)</f>
+        <v>8479500</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +3774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +3782,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -2330,7 +3790,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -2341,5 +3801,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>